--- a/data/zombie8.xlsx
+++ b/data/zombie8.xlsx
@@ -366,502 +366,502 @@
     </row>
     <row r="2">
       <c r="A2">
-        <v>9</v>
+        <v>27</v>
       </c>
     </row>
     <row r="3">
       <c r="A3">
-        <v>27</v>
+        <v>32</v>
       </c>
     </row>
     <row r="4">
       <c r="A4">
-        <v>32</v>
+        <v>36</v>
       </c>
     </row>
     <row r="5">
       <c r="A5">
-        <v>36</v>
+        <v>42</v>
       </c>
     </row>
     <row r="6">
       <c r="A6">
-        <v>42</v>
+        <v>55</v>
       </c>
     </row>
     <row r="7">
       <c r="A7">
-        <v>55</v>
+        <v>63</v>
       </c>
     </row>
     <row r="8">
       <c r="A8">
-        <v>63</v>
+        <v>88</v>
       </c>
     </row>
     <row r="9">
       <c r="A9">
-        <v>88</v>
+        <v>92</v>
       </c>
     </row>
     <row r="10">
       <c r="A10">
-        <v>92</v>
+        <v>103</v>
       </c>
     </row>
     <row r="11">
       <c r="A11">
-        <v>97</v>
+        <v>118</v>
       </c>
     </row>
     <row r="12">
       <c r="A12">
-        <v>103</v>
+        <v>125</v>
       </c>
     </row>
     <row r="13">
       <c r="A13">
-        <v>118</v>
+        <v>149</v>
       </c>
     </row>
     <row r="14">
       <c r="A14">
-        <v>125</v>
+        <v>150</v>
       </c>
     </row>
     <row r="15">
       <c r="A15">
-        <v>142</v>
+        <v>163</v>
       </c>
     </row>
     <row r="16">
       <c r="A16">
-        <v>149</v>
+        <v>171</v>
       </c>
     </row>
     <row r="17">
       <c r="A17">
-        <v>150</v>
+        <v>176</v>
       </c>
     </row>
     <row r="18">
       <c r="A18">
-        <v>163</v>
+        <v>207</v>
       </c>
     </row>
     <row r="19">
       <c r="A19">
-        <v>171</v>
+        <v>228</v>
       </c>
     </row>
     <row r="20">
       <c r="A20">
-        <v>176</v>
+        <v>235</v>
       </c>
     </row>
     <row r="21">
       <c r="A21">
-        <v>207</v>
+        <v>271</v>
       </c>
     </row>
     <row r="22">
       <c r="A22">
-        <v>228</v>
+        <v>280</v>
       </c>
     </row>
     <row r="23">
       <c r="A23">
-        <v>235</v>
+        <v>289</v>
       </c>
     </row>
     <row r="24">
       <c r="A24">
-        <v>271</v>
+        <v>308</v>
       </c>
     </row>
     <row r="25">
       <c r="A25">
-        <v>280</v>
+        <v>328</v>
       </c>
     </row>
     <row r="26">
       <c r="A26">
-        <v>289</v>
+        <v>340</v>
       </c>
     </row>
     <row r="27">
       <c r="A27">
-        <v>308</v>
+        <v>381</v>
       </c>
     </row>
     <row r="28">
       <c r="A28">
-        <v>328</v>
+        <v>412</v>
       </c>
     </row>
     <row r="29">
       <c r="A29">
-        <v>340</v>
+        <v>424</v>
       </c>
     </row>
     <row r="30">
       <c r="A30">
-        <v>381</v>
+        <v>426</v>
       </c>
     </row>
     <row r="31">
       <c r="A31">
-        <v>412</v>
+        <v>427</v>
       </c>
     </row>
     <row r="32">
       <c r="A32">
-        <v>424</v>
+        <v>429</v>
       </c>
     </row>
     <row r="33">
       <c r="A33">
-        <v>426</v>
+        <v>430</v>
       </c>
     </row>
     <row r="34">
       <c r="A34">
-        <v>427</v>
+        <v>433</v>
       </c>
     </row>
     <row r="35">
       <c r="A35">
-        <v>429</v>
+        <v>434</v>
       </c>
     </row>
     <row r="36">
       <c r="A36">
-        <v>430</v>
+        <v>437</v>
       </c>
     </row>
     <row r="37">
       <c r="A37">
-        <v>433</v>
+        <v>447</v>
       </c>
     </row>
     <row r="38">
       <c r="A38">
-        <v>434</v>
+        <v>450</v>
       </c>
     </row>
     <row r="39">
       <c r="A39">
-        <v>437</v>
+        <v>455</v>
       </c>
     </row>
     <row r="40">
       <c r="A40">
-        <v>447</v>
+        <v>460</v>
       </c>
     </row>
     <row r="41">
       <c r="A41">
-        <v>450</v>
+        <v>492</v>
       </c>
     </row>
     <row r="42">
       <c r="A42">
-        <v>455</v>
+        <v>498</v>
       </c>
     </row>
     <row r="43">
       <c r="A43">
-        <v>460</v>
+        <v>509</v>
       </c>
     </row>
     <row r="44">
       <c r="A44">
-        <v>492</v>
+        <v>512</v>
       </c>
     </row>
     <row r="45">
       <c r="A45">
-        <v>498</v>
+        <v>514</v>
       </c>
     </row>
     <row r="46">
       <c r="A46">
-        <v>509</v>
+        <v>525</v>
       </c>
     </row>
     <row r="47">
       <c r="A47">
-        <v>512</v>
+        <v>544</v>
       </c>
     </row>
     <row r="48">
       <c r="A48">
-        <v>514</v>
+        <v>606</v>
       </c>
     </row>
     <row r="49">
       <c r="A49">
-        <v>525</v>
+        <v>622</v>
       </c>
     </row>
     <row r="50">
       <c r="A50">
-        <v>544</v>
+        <v>728</v>
       </c>
     </row>
     <row r="51">
       <c r="A51">
-        <v>606</v>
+        <v>731</v>
       </c>
     </row>
     <row r="52">
       <c r="A52">
-        <v>622</v>
+        <v>740</v>
       </c>
     </row>
     <row r="53">
       <c r="A53">
-        <v>728</v>
+        <v>762</v>
       </c>
     </row>
     <row r="54">
       <c r="A54">
-        <v>731</v>
+        <v>791</v>
       </c>
     </row>
     <row r="55">
       <c r="A55">
-        <v>740</v>
+        <v>814</v>
       </c>
     </row>
     <row r="56">
       <c r="A56">
-        <v>762</v>
+        <v>822</v>
       </c>
     </row>
     <row r="57">
       <c r="A57">
-        <v>791</v>
+        <v>891</v>
       </c>
     </row>
     <row r="58">
       <c r="A58">
-        <v>814</v>
+        <v>905</v>
       </c>
     </row>
     <row r="59">
       <c r="A59">
-        <v>822</v>
+        <v>927</v>
       </c>
     </row>
     <row r="60">
       <c r="A60">
-        <v>891</v>
+        <v>1074</v>
       </c>
     </row>
     <row r="61">
       <c r="A61">
-        <v>905</v>
+        <v>1123</v>
       </c>
     </row>
     <row r="62">
       <c r="A62">
-        <v>927</v>
+        <v>1141</v>
       </c>
     </row>
     <row r="63">
       <c r="A63">
-        <v>1074</v>
+        <v>1145</v>
       </c>
     </row>
     <row r="64">
       <c r="A64">
-        <v>1123</v>
+        <v>1151</v>
       </c>
     </row>
     <row r="65">
       <c r="A65">
-        <v>1141</v>
+        <v>1154</v>
       </c>
     </row>
     <row r="66">
       <c r="A66">
-        <v>1145</v>
+        <v>1209</v>
       </c>
     </row>
     <row r="67">
       <c r="A67">
-        <v>1151</v>
+        <v>1249</v>
       </c>
     </row>
     <row r="68">
       <c r="A68">
-        <v>1154</v>
+        <v>1267</v>
       </c>
     </row>
     <row r="69">
       <c r="A69">
-        <v>1209</v>
+        <v>1268</v>
       </c>
     </row>
     <row r="70">
       <c r="A70">
-        <v>1249</v>
+        <v>1292</v>
       </c>
     </row>
     <row r="71">
       <c r="A71">
-        <v>1267</v>
+        <v>1307</v>
       </c>
     </row>
     <row r="72">
       <c r="A72">
-        <v>1268</v>
+        <v>1309</v>
       </c>
     </row>
     <row r="73">
       <c r="A73">
-        <v>1292</v>
+        <v>1310</v>
       </c>
     </row>
     <row r="74">
       <c r="A74">
-        <v>1307</v>
+        <v>1311</v>
       </c>
     </row>
     <row r="75">
       <c r="A75">
-        <v>1309</v>
+        <v>1318</v>
       </c>
     </row>
     <row r="76">
       <c r="A76">
-        <v>1310</v>
+        <v>1321</v>
       </c>
     </row>
     <row r="77">
       <c r="A77">
-        <v>1311</v>
+        <v>1323</v>
       </c>
     </row>
     <row r="78">
       <c r="A78">
-        <v>1314</v>
+        <v>1325</v>
       </c>
     </row>
     <row r="79">
       <c r="A79">
-        <v>1318</v>
+        <v>1326</v>
       </c>
     </row>
     <row r="80">
       <c r="A80">
-        <v>1321</v>
+        <v>1333</v>
       </c>
     </row>
     <row r="81">
       <c r="A81">
-        <v>1323</v>
+        <v>1334</v>
       </c>
     </row>
     <row r="82">
       <c r="A82">
-        <v>1325</v>
+        <v>1336</v>
       </c>
     </row>
     <row r="83">
       <c r="A83">
-        <v>1326</v>
+        <v>1337</v>
       </c>
     </row>
     <row r="84">
       <c r="A84">
-        <v>1331</v>
+        <v>1338</v>
       </c>
     </row>
     <row r="85">
       <c r="A85">
-        <v>1333</v>
+        <v>1340</v>
       </c>
     </row>
     <row r="86">
       <c r="A86">
-        <v>1334</v>
+        <v>1343</v>
       </c>
     </row>
     <row r="87">
       <c r="A87">
-        <v>1336</v>
+        <v>1344</v>
       </c>
     </row>
     <row r="88">
       <c r="A88">
-        <v>1337</v>
+        <v>1385</v>
       </c>
     </row>
     <row r="89">
       <c r="A89">
-        <v>1338</v>
+        <v>1398</v>
       </c>
     </row>
     <row r="90">
       <c r="A90">
-        <v>1340</v>
+        <v>1404</v>
       </c>
     </row>
     <row r="91">
       <c r="A91">
-        <v>1343</v>
+        <v>1411</v>
       </c>
     </row>
     <row r="92">
       <c r="A92">
-        <v>1344</v>
+        <v>1437</v>
       </c>
     </row>
     <row r="93">
       <c r="A93">
-        <v>1385</v>
+        <v>1482</v>
       </c>
     </row>
     <row r="94">
       <c r="A94">
-        <v>1398</v>
+        <v>1492</v>
       </c>
     </row>
     <row r="95">
       <c r="A95">
-        <v>1404</v>
+        <v>113</v>
       </c>
     </row>
     <row r="96">
       <c r="A96">
-        <v>1411</v>
+        <v>565</v>
       </c>
     </row>
     <row r="97">
       <c r="A97">
-        <v>1437</v>
+        <v>9</v>
       </c>
     </row>
     <row r="98">
       <c r="A98">
-        <v>1482</v>
+        <v>97</v>
       </c>
     </row>
     <row r="99">
       <c r="A99">
-        <v>1492</v>
+        <v>142</v>
       </c>
     </row>
     <row r="100">
       <c r="A100">
-        <v>113</v>
+        <v>1314</v>
       </c>
     </row>
     <row r="101">
       <c r="A101">
-        <v>565</v>
+        <v>1331</v>
       </c>
     </row>
   </sheetData>

--- a/data/zombie8.xlsx
+++ b/data/zombie8.xlsx
@@ -421,447 +421,447 @@
     </row>
     <row r="13">
       <c r="A13">
-        <v>149</v>
+        <v>150</v>
       </c>
     </row>
     <row r="14">
       <c r="A14">
-        <v>150</v>
+        <v>163</v>
       </c>
     </row>
     <row r="15">
       <c r="A15">
-        <v>163</v>
+        <v>171</v>
       </c>
     </row>
     <row r="16">
       <c r="A16">
-        <v>171</v>
+        <v>176</v>
       </c>
     </row>
     <row r="17">
       <c r="A17">
-        <v>176</v>
+        <v>207</v>
       </c>
     </row>
     <row r="18">
       <c r="A18">
-        <v>207</v>
+        <v>228</v>
       </c>
     </row>
     <row r="19">
       <c r="A19">
-        <v>228</v>
+        <v>235</v>
       </c>
     </row>
     <row r="20">
       <c r="A20">
-        <v>235</v>
+        <v>271</v>
       </c>
     </row>
     <row r="21">
       <c r="A21">
-        <v>271</v>
+        <v>280</v>
       </c>
     </row>
     <row r="22">
       <c r="A22">
-        <v>280</v>
+        <v>289</v>
       </c>
     </row>
     <row r="23">
       <c r="A23">
-        <v>289</v>
+        <v>308</v>
       </c>
     </row>
     <row r="24">
       <c r="A24">
-        <v>308</v>
+        <v>328</v>
       </c>
     </row>
     <row r="25">
       <c r="A25">
-        <v>328</v>
+        <v>340</v>
       </c>
     </row>
     <row r="26">
       <c r="A26">
-        <v>340</v>
+        <v>381</v>
       </c>
     </row>
     <row r="27">
       <c r="A27">
-        <v>381</v>
+        <v>412</v>
       </c>
     </row>
     <row r="28">
       <c r="A28">
-        <v>412</v>
+        <v>424</v>
       </c>
     </row>
     <row r="29">
       <c r="A29">
-        <v>424</v>
+        <v>426</v>
       </c>
     </row>
     <row r="30">
       <c r="A30">
-        <v>426</v>
+        <v>427</v>
       </c>
     </row>
     <row r="31">
       <c r="A31">
-        <v>427</v>
+        <v>429</v>
       </c>
     </row>
     <row r="32">
       <c r="A32">
-        <v>429</v>
+        <v>430</v>
       </c>
     </row>
     <row r="33">
       <c r="A33">
-        <v>430</v>
+        <v>433</v>
       </c>
     </row>
     <row r="34">
       <c r="A34">
-        <v>433</v>
+        <v>434</v>
       </c>
     </row>
     <row r="35">
       <c r="A35">
-        <v>434</v>
+        <v>437</v>
       </c>
     </row>
     <row r="36">
       <c r="A36">
-        <v>437</v>
+        <v>447</v>
       </c>
     </row>
     <row r="37">
       <c r="A37">
-        <v>447</v>
+        <v>450</v>
       </c>
     </row>
     <row r="38">
       <c r="A38">
-        <v>450</v>
+        <v>455</v>
       </c>
     </row>
     <row r="39">
       <c r="A39">
-        <v>455</v>
+        <v>460</v>
       </c>
     </row>
     <row r="40">
       <c r="A40">
-        <v>460</v>
+        <v>492</v>
       </c>
     </row>
     <row r="41">
       <c r="A41">
-        <v>492</v>
+        <v>498</v>
       </c>
     </row>
     <row r="42">
       <c r="A42">
-        <v>498</v>
+        <v>509</v>
       </c>
     </row>
     <row r="43">
       <c r="A43">
-        <v>509</v>
+        <v>512</v>
       </c>
     </row>
     <row r="44">
       <c r="A44">
-        <v>512</v>
+        <v>514</v>
       </c>
     </row>
     <row r="45">
       <c r="A45">
-        <v>514</v>
+        <v>525</v>
       </c>
     </row>
     <row r="46">
       <c r="A46">
-        <v>525</v>
+        <v>544</v>
       </c>
     </row>
     <row r="47">
       <c r="A47">
-        <v>544</v>
+        <v>606</v>
       </c>
     </row>
     <row r="48">
       <c r="A48">
-        <v>606</v>
+        <v>622</v>
       </c>
     </row>
     <row r="49">
       <c r="A49">
-        <v>622</v>
+        <v>728</v>
       </c>
     </row>
     <row r="50">
       <c r="A50">
-        <v>728</v>
+        <v>731</v>
       </c>
     </row>
     <row r="51">
       <c r="A51">
-        <v>731</v>
+        <v>740</v>
       </c>
     </row>
     <row r="52">
       <c r="A52">
-        <v>740</v>
+        <v>762</v>
       </c>
     </row>
     <row r="53">
       <c r="A53">
-        <v>762</v>
+        <v>791</v>
       </c>
     </row>
     <row r="54">
       <c r="A54">
-        <v>791</v>
+        <v>814</v>
       </c>
     </row>
     <row r="55">
       <c r="A55">
-        <v>814</v>
+        <v>822</v>
       </c>
     </row>
     <row r="56">
       <c r="A56">
-        <v>822</v>
+        <v>891</v>
       </c>
     </row>
     <row r="57">
       <c r="A57">
-        <v>891</v>
+        <v>905</v>
       </c>
     </row>
     <row r="58">
       <c r="A58">
-        <v>905</v>
+        <v>927</v>
       </c>
     </row>
     <row r="59">
       <c r="A59">
-        <v>927</v>
+        <v>1074</v>
       </c>
     </row>
     <row r="60">
       <c r="A60">
-        <v>1074</v>
+        <v>1123</v>
       </c>
     </row>
     <row r="61">
       <c r="A61">
-        <v>1123</v>
+        <v>1141</v>
       </c>
     </row>
     <row r="62">
       <c r="A62">
-        <v>1141</v>
+        <v>1145</v>
       </c>
     </row>
     <row r="63">
       <c r="A63">
-        <v>1145</v>
+        <v>1151</v>
       </c>
     </row>
     <row r="64">
       <c r="A64">
-        <v>1151</v>
+        <v>1154</v>
       </c>
     </row>
     <row r="65">
       <c r="A65">
-        <v>1154</v>
+        <v>1209</v>
       </c>
     </row>
     <row r="66">
       <c r="A66">
-        <v>1209</v>
+        <v>1249</v>
       </c>
     </row>
     <row r="67">
       <c r="A67">
-        <v>1249</v>
+        <v>1267</v>
       </c>
     </row>
     <row r="68">
       <c r="A68">
-        <v>1267</v>
+        <v>1268</v>
       </c>
     </row>
     <row r="69">
       <c r="A69">
-        <v>1268</v>
+        <v>1292</v>
       </c>
     </row>
     <row r="70">
       <c r="A70">
-        <v>1292</v>
+        <v>1307</v>
       </c>
     </row>
     <row r="71">
       <c r="A71">
-        <v>1307</v>
+        <v>1309</v>
       </c>
     </row>
     <row r="72">
       <c r="A72">
-        <v>1309</v>
+        <v>1310</v>
       </c>
     </row>
     <row r="73">
       <c r="A73">
-        <v>1310</v>
+        <v>1311</v>
       </c>
     </row>
     <row r="74">
       <c r="A74">
-        <v>1311</v>
+        <v>1318</v>
       </c>
     </row>
     <row r="75">
       <c r="A75">
-        <v>1318</v>
+        <v>1321</v>
       </c>
     </row>
     <row r="76">
       <c r="A76">
-        <v>1321</v>
+        <v>1323</v>
       </c>
     </row>
     <row r="77">
       <c r="A77">
-        <v>1323</v>
+        <v>1325</v>
       </c>
     </row>
     <row r="78">
       <c r="A78">
-        <v>1325</v>
+        <v>1326</v>
       </c>
     </row>
     <row r="79">
       <c r="A79">
-        <v>1326</v>
+        <v>1334</v>
       </c>
     </row>
     <row r="80">
       <c r="A80">
-        <v>1333</v>
+        <v>1336</v>
       </c>
     </row>
     <row r="81">
       <c r="A81">
-        <v>1334</v>
+        <v>1337</v>
       </c>
     </row>
     <row r="82">
       <c r="A82">
-        <v>1336</v>
+        <v>1338</v>
       </c>
     </row>
     <row r="83">
       <c r="A83">
-        <v>1337</v>
+        <v>1340</v>
       </c>
     </row>
     <row r="84">
       <c r="A84">
-        <v>1338</v>
+        <v>1343</v>
       </c>
     </row>
     <row r="85">
       <c r="A85">
-        <v>1340</v>
+        <v>1344</v>
       </c>
     </row>
     <row r="86">
       <c r="A86">
-        <v>1343</v>
+        <v>1385</v>
       </c>
     </row>
     <row r="87">
       <c r="A87">
-        <v>1344</v>
+        <v>1398</v>
       </c>
     </row>
     <row r="88">
       <c r="A88">
-        <v>1385</v>
+        <v>1404</v>
       </c>
     </row>
     <row r="89">
       <c r="A89">
-        <v>1398</v>
+        <v>1411</v>
       </c>
     </row>
     <row r="90">
       <c r="A90">
-        <v>1404</v>
+        <v>1437</v>
       </c>
     </row>
     <row r="91">
       <c r="A91">
-        <v>1411</v>
+        <v>1482</v>
       </c>
     </row>
     <row r="92">
       <c r="A92">
-        <v>1437</v>
+        <v>1492</v>
       </c>
     </row>
     <row r="93">
       <c r="A93">
-        <v>1482</v>
+        <v>113</v>
       </c>
     </row>
     <row r="94">
       <c r="A94">
-        <v>1492</v>
+        <v>565</v>
       </c>
     </row>
     <row r="95">
       <c r="A95">
-        <v>113</v>
+        <v>9</v>
       </c>
     </row>
     <row r="96">
       <c r="A96">
-        <v>565</v>
+        <v>97</v>
       </c>
     </row>
     <row r="97">
       <c r="A97">
-        <v>9</v>
+        <v>142</v>
       </c>
     </row>
     <row r="98">
       <c r="A98">
-        <v>97</v>
+        <v>149</v>
       </c>
     </row>
     <row r="99">
       <c r="A99">
-        <v>142</v>
+        <v>1314</v>
       </c>
     </row>
     <row r="100">
       <c r="A100">
-        <v>1314</v>
+        <v>1331</v>
       </c>
     </row>
     <row r="101">
       <c r="A101">
-        <v>1331</v>
+        <v>1333</v>
       </c>
     </row>
   </sheetData>
